--- a/admin/assets/file/excel/location_import_sample.xlsx
+++ b/admin/assets/file/excel/location_import_sample.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="580">
   <si>
-    <t>Name</t>
+    <t>Location Name</t>
   </si>
   <si>
     <t>A1</t>
@@ -1756,19 +1760,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1776,3200 +1799,3237 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A626"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="256" min="2" style="0" width="15.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.5204081632653"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
         <v>579</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>